--- a/week6/day1/DB.xlsx
+++ b/week6/day1/DB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>country</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>blah-blah</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>primary_key</t>
+  </si>
+  <si>
+    <t>post_id</t>
   </si>
 </sst>
 </file>
@@ -251,11 +260,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -263,8 +277,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,202 +615,233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="23">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="23">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>1234</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>12345</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>987</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>123</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>12345</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>1234</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>123456</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>1234</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="23">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" s="1" customFormat="1" ht="23">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>321</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E9" r:id="rId7"/>
+    <hyperlink ref="E10" r:id="rId8"/>
+    <hyperlink ref="E11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -805,98 +855,134 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="23">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="23">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="23">
-      <c r="A3" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" ht="23">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" ht="23">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" ht="23">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" ht="23">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="23">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="23">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="9" spans="1:5" ht="23">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="23">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="23">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -907,12 +993,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="23">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="23">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="23">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="23">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="23">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="23">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="23">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="23">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="23">
+      <c r="A11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
